--- a/interface/OnlyCarrot/UserList.xlsx
+++ b/interface/OnlyCarrot/UserList.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eng_dic\interface\OnlyCarrot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2833009E-0509-435B-A661-8EAF8A03549C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98370AB-6F42-4B76-9A65-B1F221DDF5A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5910" yWindow="3210" windowWidth="21555" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3615" yWindow="2205" windowWidth="21555" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="usersheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -553,7 +566,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/interface/OnlyCarrot/UserList.xlsx
+++ b/interface/OnlyCarrot/UserList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eng_dic\interface\OnlyCarrot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laptop\Desktop\coding\Eng_dic\interface\OnlyCarrot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98370AB-6F42-4B76-9A65-B1F221DDF5A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F13509E-704D-4781-AF4A-CC79D6B31630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3615" yWindow="2205" windowWidth="21555" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="usersheet" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
   <si>
     <t>ID</t>
   </si>
@@ -171,6 +171,10 @@
   </si>
   <si>
     <t>황지성</t>
+  </si>
+  <si>
+    <t>LastTest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -222,11 +226,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -563,15 +570,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="6" max="6" width="16.296875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -587,8 +597,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -604,8 +617,11 @@
       <c r="E2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="2">
+        <v>45431</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -621,8 +637,11 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="2">
+        <v>45431</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -638,8 +657,11 @@
       <c r="E4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="2">
+        <v>45431</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -655,8 +677,11 @@
       <c r="E5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="2">
+        <v>45431</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -672,8 +697,11 @@
       <c r="E6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="2">
+        <v>45431</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -689,8 +717,11 @@
       <c r="E7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="2">
+        <v>45431</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -706,8 +737,11 @@
       <c r="E8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="2">
+        <v>45431</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -723,8 +757,11 @@
       <c r="E9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="2">
+        <v>45431</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -740,8 +777,11 @@
       <c r="E10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" s="2">
+        <v>45431</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -757,8 +797,11 @@
       <c r="E11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="2">
+        <v>45431</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -774,8 +817,11 @@
       <c r="E12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" s="2">
+        <v>45431</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -791,8 +837,11 @@
       <c r="E13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" s="2">
+        <v>45431</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -807,6 +856,9 @@
       </c>
       <c r="E14">
         <v>4</v>
+      </c>
+      <c r="F14" s="2">
+        <v>45431</v>
       </c>
     </row>
   </sheetData>

--- a/interface/OnlyCarrot/UserList.xlsx
+++ b/interface/OnlyCarrot/UserList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laptop\Desktop\coding\Eng_dic\interface\OnlyCarrot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F13509E-704D-4781-AF4A-CC79D6B31630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B63035-FF5C-4A21-8B42-921E07D02A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4644" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="usersheet" sheetId="1" r:id="rId1"/>
@@ -572,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
